--- a/DMSNewVSale_2025-10-18_19-46.xlsx
+++ b/DMSNewVSale_2025-10-18_19-46.xlsx
@@ -284,6 +284,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -677,9 +689,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -719,10 +728,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سويت افوفا</t>
@@ -2114,7 +2123,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2124,11 +2133,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2140,14 +2149,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2173,14 +2182,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2206,14 +2215,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2223,11 +2232,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2239,28 +2248,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2272,7 +2281,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2285,15 +2294,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2305,14 +2314,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2345,7 +2354,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2355,14 +2364,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2371,14 +2380,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2404,14 +2413,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,14 +2446,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2454,14 +2463,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2470,14 +2479,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2503,14 +2512,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2553,11 +2562,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2569,14 +2578,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,14 +2611,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2619,14 +2628,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2635,7 +2644,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2652,14 +2661,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,14 +2677,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2701,31 +2710,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,31 +2743,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2767,14 +2776,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2784,14 +2793,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2807,24 +2816,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2833,31 +2842,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2873,7 +2882,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2883,11 +2892,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2899,14 +2908,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2932,14 +2941,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,14 +2974,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,14 +3007,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3015,14 +3024,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3044,15 +3053,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3064,7 +3073,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3081,11 +3090,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3097,7 +3106,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3114,11 +3123,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3130,20 +3139,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3154,7 +3163,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3170,7 +3179,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3196,14 +3205,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3229,14 +3238,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3246,11 +3255,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3262,14 +3271,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3295,28 +3304,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3328,14 +3337,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3345,11 +3354,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3361,14 +3370,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3378,11 +3387,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3394,31 +3403,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3427,14 +3436,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3460,14 +3469,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3493,14 +3502,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,7 +3542,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3543,11 +3552,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3559,14 +3568,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3583,7 +3592,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3599,7 +3608,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3609,14 +3618,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3625,14 +3634,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3642,11 +3651,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3658,14 +3667,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3675,11 +3684,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3691,31 +3700,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3741,11 +3750,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>15</v>
@@ -3757,7 +3766,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3778,10 +3787,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,14 +3799,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3830,7 +3839,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3844,10 +3853,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,7 +3865,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3889,7 +3898,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,14 +3931,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3955,14 +3964,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3988,14 +3997,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4021,14 +4030,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4054,7 +4063,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4087,14 +4096,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4104,11 +4113,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4127,7 +4136,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4153,14 +4162,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4170,51 +4179,84 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>252</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" ht="26.25" customHeight="1">
-      <c r="N91" s="13">
-        <v>5380.8299999999999</v>
-      </c>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>253</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>30</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>254</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>255</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" ht="26.25" customHeight="1">
+      <c r="N92" s="13">
+        <v>5414.8299999999999</v>
+      </c>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>256</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>257</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>258</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4685,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
